--- a/generate/daytime.xlsx
+++ b/generate/daytime.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28785" windowHeight="13140" activeTab="1"/>
+    <workbookView windowHeight="18070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -363,39 +363,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,14 +374,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,8 +400,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,11 +454,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -476,17 +485,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,7 +516,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,25 +552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,37 +564,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,7 +600,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,85 +696,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,30 +821,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -864,15 +840,17 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -895,11 +873,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,10 +924,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -936,133 +936,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1737,7 +1737,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="8.625" customWidth="1"/>
   </cols>
@@ -1843,11 +1843,11 @@
   <sheetPr/>
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="I1" s="1" t="str">
         <f>FLOOR(COUNTIF($C:$C,$F1)*15/60,1)&amp;":"&amp;REPT(0,2-LEN(MOD(COUNTIF($C:$C,$F1)*15/60,1)*60))&amp;MOD(COUNTIF($C:$C,$F1)*15/60,1)*60</f>
-        <v>8:45</v>
+        <v>8:00</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="I2" s="1" t="str">
         <f>FLOOR(COUNTIF($C:$C,$F2)*15/60,1)&amp;":"&amp;REPT(0,2-LEN(MOD(COUNTIF($C:$C,$F2)*15/60,1)*60))&amp;MOD(COUNTIF($C:$C,$F2)*15/60,1)*60</f>
-        <v>1:30</v>
+        <v>2:00</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="I3" s="1" t="str">
         <f>FLOOR(COUNTIF($C:$C,$F3)*15/60,1)&amp;":"&amp;REPT(0,2-LEN(MOD(COUNTIF($C:$C,$F3)*15/60,1)*60))&amp;MOD(COUNTIF($C:$C,$F3)*15/60,1)*60</f>
-        <v>3:00</v>
+        <v>2:00</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="I4" s="1" t="str">
         <f>FLOOR(COUNTIF($C:$C,$F4)*15/60,1)&amp;":"&amp;REPT(0,2-LEN(MOD(COUNTIF($C:$C,$F4)*15/60,1)*60))&amp;MOD(COUNTIF($C:$C,$F4)*15/60,1)*60</f>
-        <v>1:45</v>
+        <v>1:00</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="I5" s="1" t="str">
         <f>FLOOR(COUNTIF($C:$C,$F5)*15/60,1)&amp;":"&amp;REPT(0,2-LEN(MOD(COUNTIF($C:$C,$F5)*15/60,1)*60))&amp;MOD(COUNTIF($C:$C,$F5)*15/60,1)*60</f>
-        <v>8:15</v>
+        <v>10:00</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="I6" s="1" t="str">
         <f>FLOOR(COUNTIF($C:$C,$F6)*15/60,1)&amp;":"&amp;REPT(0,2-LEN(MOD(COUNTIF($C:$C,$F6)*15/60,1)*60))&amp;MOD(COUNTIF($C:$C,$F6)*15/60,1)*60</f>
-        <v>0:45</v>
+        <v>1:00</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2443,57 +2443,57 @@
         <v>40</v>
       </c>
       <c r="B29" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="1" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>修整</v>
+        <v>吃饭</v>
       </c>
       <c r="E29" s="1" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>Trest</v>
+        <v>Teat</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="3">
-        <v>4</v>
-      </c>
+      <c r="B30" s="3"/>
       <c r="C30" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>锻炼</v>
+        <v>吃饭</v>
       </c>
       <c r="E30" s="1" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>Tmotion</v>
+        <v>Teat</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3">
+        <v>5</v>
+      </c>
       <c r="C31" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" s="1" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>锻炼</v>
+        <v>工作</v>
       </c>
       <c r="E31" s="1" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>Tmotion</v>
+        <v>Twork</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2503,44 +2503,40 @@
       <c r="B32" s="3"/>
       <c r="C32" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" s="1" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>锻炼</v>
+        <v>工作</v>
       </c>
       <c r="E32" s="1" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>Tmotion</v>
+        <v>Twork</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="3">
-        <v>6</v>
-      </c>
+      <c r="B33" s="3"/>
       <c r="C33" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" s="1" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>通勤</v>
+        <v>工作</v>
       </c>
       <c r="E33" s="1" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>Twalk</v>
+        <v>Twork</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="3">
-        <v>5</v>
-      </c>
+      <c r="B34" s="3"/>
       <c r="C34" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -2558,18 +2554,20 @@
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="3">
+        <v>6</v>
+      </c>
       <c r="C35" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D35" s="1" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>工作</v>
+        <v>通勤</v>
       </c>
       <c r="E35" s="1" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>Twork</v>
+        <v>Twalk</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2579,15 +2577,15 @@
       <c r="B36" s="3"/>
       <c r="C36" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36" s="1" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>工作</v>
+        <v>通勤</v>
       </c>
       <c r="E36" s="1" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>Twork</v>
+        <v>Twalk</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2595,28 +2593,26 @@
         <v>48</v>
       </c>
       <c r="B37" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" s="1" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>修整</v>
+        <v>工作</v>
       </c>
       <c r="E37" s="1" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>Trest</v>
+        <v>Twork</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="3">
-        <v>5</v>
-      </c>
+      <c r="B38" s="3"/>
       <c r="C38" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -2688,29 +2684,25 @@
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="4">
-        <v>3</v>
-      </c>
+      <c r="B42" s="4"/>
       <c r="C42" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" s="1" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>修整</v>
+        <v>工作</v>
       </c>
       <c r="E42" s="1" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>Trest</v>
+        <v>Twork</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="3">
-        <v>5</v>
-      </c>
+      <c r="B43" s="3"/>
       <c r="C43" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -2746,18 +2738,20 @@
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="3"/>
+      <c r="B45" s="3">
+        <v>2</v>
+      </c>
       <c r="C45" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" s="1" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>工作</v>
+        <v>吃饭</v>
       </c>
       <c r="E45" s="1" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>Twork</v>
+        <v>Teat</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2767,15 +2761,15 @@
       <c r="B46" s="3"/>
       <c r="C46" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" s="1" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>工作</v>
+        <v>吃饭</v>
       </c>
       <c r="E46" s="1" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>Twork</v>
+        <v>Teat</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2783,19 +2777,19 @@
         <v>58</v>
       </c>
       <c r="B47" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" s="1" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>吃饭</v>
+        <v>修整</v>
       </c>
       <c r="E47" s="1" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>Teat</v>
+        <v>Trest</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2805,15 +2799,15 @@
       <c r="B48" s="3"/>
       <c r="C48" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" s="1" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>吃饭</v>
+        <v>修整</v>
       </c>
       <c r="E48" s="1" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>Teat</v>
+        <v>Trest</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2823,15 +2817,15 @@
       <c r="B49" s="3"/>
       <c r="C49" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" s="1" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>吃饭</v>
+        <v>修整</v>
       </c>
       <c r="E49" s="1" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>Teat</v>
+        <v>Trest</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2839,19 +2833,19 @@
         <v>61</v>
       </c>
       <c r="B50" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D50" s="1" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>工作</v>
+        <v>通勤</v>
       </c>
       <c r="E50" s="1" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>Twork</v>
+        <v>Twalk</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2861,22 +2855,24 @@
       <c r="B51" s="3"/>
       <c r="C51" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D51" s="1" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>工作</v>
+        <v>通勤</v>
       </c>
       <c r="E51" s="1" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>Twork</v>
+        <v>Twalk</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="3"/>
+      <c r="B52" s="3">
+        <v>5</v>
+      </c>
       <c r="C52" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -2894,20 +2890,18 @@
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="3">
-        <v>1</v>
-      </c>
+      <c r="B53" s="3"/>
       <c r="C53" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D53" s="1" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>睡觉</v>
+        <v>工作</v>
       </c>
       <c r="E53" s="1" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>Tsleep</v>
+        <v>Twork</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2917,15 +2911,15 @@
       <c r="B54" s="3"/>
       <c r="C54" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D54" s="1" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>睡觉</v>
+        <v>工作</v>
       </c>
       <c r="E54" s="1" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>Tsleep</v>
+        <v>Twork</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2935,64 +2929,58 @@
       <c r="B55" s="3"/>
       <c r="C55" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D55" s="1" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>睡觉</v>
+        <v>工作</v>
       </c>
       <c r="E55" s="1" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>Tsleep</v>
+        <v>Twork</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B56" s="4">
-        <v>3</v>
-      </c>
+      <c r="B56" s="4"/>
       <c r="C56" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" s="1" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>修整</v>
+        <v>工作</v>
       </c>
       <c r="E56" s="1" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>Trest</v>
+        <v>Twork</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B57" s="3">
-        <v>6</v>
-      </c>
+      <c r="B57" s="3"/>
       <c r="C57" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D57" s="1" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>通勤</v>
+        <v>工作</v>
       </c>
       <c r="E57" s="1" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>Twalk</v>
+        <v>Twork</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B58" s="3">
-        <v>5</v>
-      </c>
+      <c r="B58" s="3"/>
       <c r="C58" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -3046,29 +3034,25 @@
       <c r="A61" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="4">
-        <v>3</v>
-      </c>
+      <c r="B61" s="4"/>
       <c r="C61" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" s="1" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>修整</v>
+        <v>工作</v>
       </c>
       <c r="E61" s="1" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>Trest</v>
+        <v>Twork</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B62" s="3">
-        <v>5</v>
-      </c>
+      <c r="B62" s="3"/>
       <c r="C62" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -3140,29 +3124,25 @@
       <c r="A66" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B66" s="4">
-        <v>3</v>
-      </c>
+      <c r="B66" s="4"/>
       <c r="C66" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" s="1" t="str">
         <f ca="1" t="shared" ref="D66:D96" si="3">OFFSET($G$1,$C66-1,0,1,1)</f>
-        <v>修整</v>
+        <v>工作</v>
       </c>
       <c r="E66" s="1" t="str">
         <f ca="1" t="shared" ref="E66:E96" si="4">OFFSET($H$1,$C66-1,0,1,1)</f>
-        <v>Trest</v>
+        <v>Twork</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B67" s="3">
-        <v>5</v>
-      </c>
+      <c r="B67" s="3"/>
       <c r="C67" s="1">
         <f t="shared" ref="C67:C96" si="5">IF(B67=0,C66,B67)</f>
         <v>5</v>
@@ -3198,18 +3178,20 @@
       <c r="A69" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B69" s="3"/>
+      <c r="B69" s="3">
+        <v>2</v>
+      </c>
       <c r="C69" s="1">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" s="1" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>工作</v>
+        <v>吃饭</v>
       </c>
       <c r="E69" s="1" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>Twork</v>
+        <v>Teat</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3219,24 +3201,22 @@
       <c r="B70" s="3"/>
       <c r="C70" s="1">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" s="1" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>工作</v>
+        <v>吃饭</v>
       </c>
       <c r="E70" s="1" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>Twork</v>
+        <v>Teat</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B71" s="3">
-        <v>2</v>
-      </c>
+      <c r="B71" s="3"/>
       <c r="C71" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -3272,27 +3252,27 @@
       <c r="A73" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B73" s="3"/>
+      <c r="B73" s="3">
+        <v>5</v>
+      </c>
       <c r="C73" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" s="1" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>吃饭</v>
+        <v>工作</v>
       </c>
       <c r="E73" s="1" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>Teat</v>
+        <v>Twork</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B74" s="3">
-        <v>5</v>
-      </c>
+      <c r="B74" s="3"/>
       <c r="C74" s="1">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3364,29 +3344,25 @@
       <c r="A78" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B78" s="4">
-        <v>3</v>
-      </c>
+      <c r="B78" s="4"/>
       <c r="C78" s="1">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" s="1" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>修整</v>
+        <v>工作</v>
       </c>
       <c r="E78" s="1" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>Trest</v>
+        <v>Twork</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B79" s="3">
-        <v>5</v>
-      </c>
+      <c r="B79" s="3"/>
       <c r="C79" s="1">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3458,20 +3434,18 @@
       <c r="A83" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B83" s="3">
-        <v>6</v>
-      </c>
+      <c r="B83" s="3"/>
       <c r="C83" s="1">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D83" s="1" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>通勤</v>
+        <v>工作</v>
       </c>
       <c r="E83" s="1" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>Twalk</v>
+        <v>Twork</v>
       </c>
     </row>
     <row r="84" spans="1:5">
